--- a/voor_onderzoek/1 januari 2020 - nu/winner_percentage_AF.PA.xlsx
+++ b/voor_onderzoek/1 januari 2020 - nu/winner_percentage_AF.PA.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\2020-2021\00_PWS\PWS\voor_onderzoek\1 januari 2020 - nu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1057,8 +1062,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,17 +1105,5084 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$344</c:f>
+              <c:strCache>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>27/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>18/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>21/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>24/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>26/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>29/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>30/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>22/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>27/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>28/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>29/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>30/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>17/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>21/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>22/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>27/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>28/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>30/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>6/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>10/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>17/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>19/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>21/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>23/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>25/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>28/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>29/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>30/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>16/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>18/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>19/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>21/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>22/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>25/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>27/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>28/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>29/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>31/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>15/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>17/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>20/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>22/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>23/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>24/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>25/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>26/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>29/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>30/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8/12/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$344</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31999999999999318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.46999999999999892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.46999999999999892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.46999999999999892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.56000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.56000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15999999999999659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.0000000000003411E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.0000000000003411E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.0000000000003411E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.9999999999993179E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.20999999999999369</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.20999999999999369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.20999999999999369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.0499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.0499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.0499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.68999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.29000000000000631</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.26999999999999602</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.60999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.60999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.65999999999999659</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.65999999999999659</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.32999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.26999999999999602</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.31000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.31000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.31000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.17000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.9999999999997158E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.12999999999999551</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.48000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.3499999999999941</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.3499999999999941</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.3499999999999941</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.3499999999999941</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.3499999999999941</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3499999999999941</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3499999999999941</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4.0699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.0699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-4.0699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-4.0699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.9200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-3.9200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.9200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-4.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.9000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-4.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-4.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-4.769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-5.3499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-5.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-5.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-5.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.8400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-4.4399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-4.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-4.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-4.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-4.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-4.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-4.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-4.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-4.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-4.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-4.9699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-5.4599999999999937</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-5.4599999999999937</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-5.4599999999999937</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-5.6700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-5.6700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-5.6700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-5.5799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-5.7099999999999937</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-5.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-5.25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-5.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-5.25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-5.25</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-5.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-6.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-6.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-6.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-6.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-6.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-6.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-6.230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-5.1599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-4.8799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-4.8199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-5.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-5.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-5.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-4.8599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-4.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-3.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-3.3499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.2600000000000049</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-2.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-2.390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-2.390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-3.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-3.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-3.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-3.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-3.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-3.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-3.1700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-3.2900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-3.2900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-3.2900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-3.2900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-3.2900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-3.2900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-3.0999999999999939</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-3.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-2.4599999999999942</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-2.6700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-2.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-3.140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-3.140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-3.140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-3.140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-3.140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-3.140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-3.640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-3.640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-3.640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-4.4399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-4.4399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-3.5699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-3.5999999999999939</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-3.5999999999999939</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-3.5999999999999939</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-3.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-2.7900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-3.0300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-3.4200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-3.4200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-3.4200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-3.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-3.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-3.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-3.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-3.1500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-3.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-2.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-2.9200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-2.9200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-2.9200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-3.3299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-3.3299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-3.3299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-3.3299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-3.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-3.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-3.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-3.2600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-3.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-3.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-3.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-3.640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-3.7399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-3.4599999999999942</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-3.4599999999999942</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-3.4599999999999942</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-3.4599999999999942</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-4.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-4.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-4.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-4.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-4.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-4.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-4.4099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-4.3400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-4.6200000000000054</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-4.6200000000000054</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-4.7399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-4.9300000000000068</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-4.9300000000000068</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-4.9300000000000068</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-4.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-4.0499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-3.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-3.5499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-3.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-3.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-3.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-4.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-3.9000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-3.9000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-3.9000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-3.1700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-3.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-3.25</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-3.25</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-3.25</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-3.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-3.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-2.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-2.5799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-2.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-2.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-2.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.31999999999999318</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7.9999999999998295E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>7.9999999999998295E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7.9999999999998295E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>7.9999999999998295E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.2399999999999951</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.96999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.96999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.96999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.96999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.5100000000000049</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2.609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2.8199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2.859999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AF.PA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$344</c:f>
+              <c:strCache>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>27/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>18/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>21/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>24/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>26/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>29/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>30/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>22/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>27/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>28/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>29/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>30/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>17/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>21/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>22/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>27/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>28/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>30/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>6/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>10/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>17/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>19/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>21/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>23/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>25/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>28/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>29/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>30/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>16/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>18/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>19/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>21/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>22/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>25/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>27/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>28/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>29/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>31/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>15/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>17/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>20/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>22/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>23/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>24/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>25/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>26/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>29/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>30/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8/12/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$344</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.7900000000000063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.8799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.37000000000000449</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.37000000000000449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.37000000000000449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12999999999999551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5999999999999941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.29000000000000631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.29000000000000631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.29000000000000631</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.1200000000000054</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.4200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.8799999999999955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.8799999999999955</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.8799999999999955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-14.95999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-14.349999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-14.47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-14.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-15.44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-15.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-15.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-14.56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11.39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.8799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.7399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-10.83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-10.83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10.83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-11.29000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.8499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.6500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.6500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.6500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1500000000000059</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.3900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-16.45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-19.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-19.900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-25.64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-30.400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-30.400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-30.400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-35.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-34.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-37.29</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-44.34</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-42.49</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-42.49</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-42.49</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-47.83</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-48.84</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-50.79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-57.04</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-51.59</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-51.59</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-51.59</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-56.48</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-55.95</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-57.18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-54.17</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-53.49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-53.49</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-53.49</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-55.41</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-49.28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-47.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-47.06</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-50.32</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-50.32</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-50.32</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-51.59</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-48.63</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-51.64</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-50.57</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-49.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-49.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-49.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-48.43</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-46.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-46.68</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-46.84</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-46.84</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-46.84</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-46.84</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-46.84</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-49.32</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-52.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-53.17</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-52.13</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-52.13</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-52.13</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-52.01</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-54.38</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-54.65</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-54.11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-55.04</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-55.04</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-55.04</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-54.66</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-55.26</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-53.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-53.18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-53.18</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-53.18</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-53.18</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-56.69</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-55.91</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-57.65</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-58.72</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-57.55</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-57.55</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-57.55</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-58.96</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-59.18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-60.23</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-61.15</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-60.48</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-60.48</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-60.48</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-58.32</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-62.06</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-62.24</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-62.71</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-63.69</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-63.69</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-63.69</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-62.04</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-56.82</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-56.55</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-59.06</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-59.06</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-59.06</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-56.88</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-55.46</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-50.95</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-50.13</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-43.9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-43.9</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-43.9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-39.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-44.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-48.41</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-52.89</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-51.37</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-51.37</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-51.37</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-52.83</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-50.99</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-52.9</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-53.88</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-54.04</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-54.04</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-54.04</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-56.11</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-56.9</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-58.57</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-58.26</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-59.66</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-59.66</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-59.66</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-58.34</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-59.37</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-58.99</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-58.01</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-57.57</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-57.57</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-57.57</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-57.6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-58.09</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-59.01</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-59.94</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-59.44</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-59.44</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-59.44</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-58.69</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-58.79</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-56.03</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-56.99</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-58.36</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-58.36</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-58.36</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-58.36</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-58.97</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-58.9</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-59.54</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-59.87</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-59.87</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-59.87</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-61.87</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-62.16</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-62.27</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-64.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-64.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-64.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-66.05</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-64.28</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-61.84</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-61.13</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-61.26</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-61.26</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-61.26</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-58.98</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-58.07</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-59.07</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-59.19</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-61.55</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-61.55</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-61.55</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-62.92</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-63.21</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-62.2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-63.12</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-62.47</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-62.47</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-62.47</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-61.68</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-61.19</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-61.47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-60.55</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-60.32</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-60.32</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-60.32</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-61.96</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-62.04</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-62.86</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-61.75</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-61.69</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-61.69</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-61.69</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-61.48</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-62.42</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-62.51</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-62.54</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-62.96</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-62.96</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-62.96</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-63.04</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-63.1</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-63.43</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-62.41</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-62.41</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-62.41</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-62.41</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-65.95</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-67.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-67.39</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-69.59</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-70.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-70.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-70.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-69.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-70.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-70.16</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-70.53</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-71.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-71.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-71.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-69.81</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-68.48</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-67.460000000000008</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-66.88</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-67.81</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-67.81</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-67.81</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-68.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-70.03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-69.78</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-70.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-69.77</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-69.77</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-69.77</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-67.539999999999992</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-67.03</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-68.44</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-67.45</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-66.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-66.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-66.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-68.19</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-69.36</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-71.13</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-71.97</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-71.69</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-71.69</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-71.69</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-70.28</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-68.45</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-68.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-68.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-69.02</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-69.02</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-69.02</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-60.5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-59.35</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-60.06</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-60.31</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-60.76</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-60.76</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-60.76</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-56.16</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-56.22</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-55.38</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-57.43</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-57.42</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-57.42</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-57.42</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-55.13</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-50.17</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-49.12</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-48.13</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-45.63</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-45.63</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-45.63</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-49.62</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-47.91</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-48.35</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-46.84</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-47.06</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-47.06</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-47.06</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-46.28</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-47.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492936120"/>
+        <c:axId val="492941216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492936120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492941216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492941216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492936120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1148,9 +6220,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,9 +6254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1216,9 +6289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1391,14 +6465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +6485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1420,315 +6496,315 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.3199999999999932</v>
+        <v>0.31999999999999318</v>
       </c>
       <c r="C3">
-        <v>3.280000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>3.2800000000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.4699999999999989</v>
+        <v>-0.46999999999999892</v>
       </c>
       <c r="C4">
-        <v>-4.900000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-4.9000000000000057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.4699999999999989</v>
+        <v>-0.46999999999999892</v>
       </c>
       <c r="C5">
-        <v>-4.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-4.9000000000000057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.4699999999999989</v>
+        <v>-0.46999999999999892</v>
       </c>
       <c r="C6">
-        <v>-4.900000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-4.9000000000000057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.5600000000000023</v>
+        <v>-0.56000000000000227</v>
       </c>
       <c r="C7">
-        <v>-5.790000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-5.7900000000000063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.5600000000000023</v>
+        <v>-0.56000000000000227</v>
       </c>
       <c r="C8">
-        <v>-5.349999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-5.3499999999999943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.5600000000000023</v>
+        <v>-0.56000000000000227</v>
       </c>
       <c r="C9">
-        <v>-4.879999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-4.8799999999999946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.1599999999999966</v>
+        <v>-0.15999999999999659</v>
       </c>
       <c r="C10">
-        <v>-1.049999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-1.0499999999999969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.09000000000000341</v>
+        <v>-9.0000000000003411E-2</v>
       </c>
       <c r="C11">
-        <v>-0.3700000000000045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.37000000000000449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.09000000000000341</v>
+        <v>-9.0000000000003411E-2</v>
       </c>
       <c r="C12">
-        <v>-0.3700000000000045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.37000000000000449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.09000000000000341</v>
+        <v>-9.0000000000003411E-2</v>
       </c>
       <c r="C13">
-        <v>-0.3700000000000045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.37000000000000449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.06999999999999318</v>
+        <v>-6.9999999999993179E-2</v>
       </c>
       <c r="C14">
-        <v>-0.1299999999999955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.12999999999999551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.2099999999999937</v>
+        <v>-0.20999999999999369</v>
       </c>
       <c r="C15">
-        <v>-1.599999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-1.5999999999999941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.2099999999999937</v>
+        <v>-0.20999999999999369</v>
       </c>
       <c r="C16">
-        <v>-2.829999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-2.8299999999999979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-0.2099999999999937</v>
+        <v>-0.20999999999999369</v>
       </c>
       <c r="C17">
         <v>-2.159999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-0.01999999999999602</v>
+        <v>-1.9999999999996021E-2</v>
       </c>
       <c r="C18">
-        <v>-0.2900000000000063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.29000000000000631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-0.01999999999999602</v>
+        <v>-1.9999999999996021E-2</v>
       </c>
       <c r="C19">
-        <v>-0.2900000000000063</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>-0.29000000000000631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.01999999999999602</v>
+        <v>-1.9999999999996021E-2</v>
       </c>
       <c r="C20">
-        <v>-0.2900000000000063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.29000000000000631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C21">
-        <v>-4.900000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-4.9000000000000057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C22">
-        <v>-7.379999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-7.3799999999999946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C23">
-        <v>-7.120000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-7.1200000000000054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C24">
-        <v>-9.420000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-9.4200000000000017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C25">
-        <v>-9.879999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-9.8799999999999955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C26">
-        <v>-9.879999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-9.8799999999999955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C27">
-        <v>-9.879999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>-9.8799999999999955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-1.049999999999997</v>
+        <v>-1.0499999999999969</v>
       </c>
       <c r="C28">
         <v>-14.95999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-1.049999999999997</v>
+        <v>-1.0499999999999969</v>
       </c>
       <c r="C29">
-        <v>-14.34999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-14.349999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>-1.049999999999997</v>
+        <v>-1.0499999999999969</v>
       </c>
       <c r="C30">
         <v>-14.47</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +6815,7 @@
         <v>-14.37</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1750,7 +6826,7 @@
         <v>-15.44</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1761,7 +6837,7 @@
         <v>-15.44</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1772,315 +6848,315 @@
         <v>-15.44</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-1.060000000000002</v>
+        <v>-1.0600000000000021</v>
       </c>
       <c r="C35">
         <v>-14.56</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.6899999999999977</v>
+        <v>-0.68999999999999773</v>
       </c>
       <c r="C36">
         <v>-11.39</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-0.2900000000000063</v>
+        <v>-0.29000000000000631</v>
       </c>
       <c r="C37">
-        <v>-7.879999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-7.8799999999999946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.269999999999996</v>
+        <v>-0.26999999999999602</v>
       </c>
       <c r="C38">
-        <v>-7.739999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-7.7399999999999949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.6099999999999994</v>
+        <v>-0.60999999999999943</v>
       </c>
       <c r="C39">
         <v>-10.83</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.6099999999999994</v>
+        <v>-0.60999999999999943</v>
       </c>
       <c r="C40">
         <v>-10.83</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.6099999999999994</v>
+        <v>-0.60999999999999943</v>
       </c>
       <c r="C41">
         <v>-10.83</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-0.6599999999999966</v>
+        <v>-0.65999999999999659</v>
       </c>
       <c r="C42">
         <v>-11.29000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.6599999999999966</v>
+        <v>-0.65999999999999659</v>
       </c>
       <c r="C43">
-        <v>-6.920000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-6.9200000000000017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.3299999999999983</v>
+        <v>-0.32999999999999829</v>
       </c>
       <c r="C44">
-        <v>-3.849999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-3.8499999999999939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>-0.269999999999996</v>
+        <v>-0.26999999999999602</v>
       </c>
       <c r="C45">
         <v>-3.269999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.3100000000000023</v>
+        <v>-0.31000000000000227</v>
       </c>
       <c r="C46">
-        <v>-3.650000000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-3.6500000000000061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.3100000000000023</v>
+        <v>-0.31000000000000227</v>
       </c>
       <c r="C47">
-        <v>-3.650000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-3.6500000000000061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.3100000000000023</v>
+        <v>-0.31000000000000227</v>
       </c>
       <c r="C48">
-        <v>-3.650000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-3.6500000000000061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.1700000000000017</v>
+        <v>-0.17000000000000171</v>
       </c>
       <c r="C49">
-        <v>-2.280000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-2.2800000000000011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.04999999999999716</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="C50">
-        <v>-1.150000000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-1.1500000000000059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.1299999999999955</v>
+        <v>-0.12999999999999551</v>
       </c>
       <c r="C51">
         <v>-1.959999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C52">
-        <v>-5.390000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-5.3900000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C53">
-        <v>-8.510000000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-8.5100000000000051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C54">
-        <v>-8.510000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-8.5100000000000051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.480000000000004</v>
+        <v>-0.48000000000000398</v>
       </c>
       <c r="C55">
-        <v>-8.510000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-8.5100000000000051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-1.349999999999994</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="C56">
         <v>-16.45</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>-1.349999999999994</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="C57">
-        <v>-19.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>-19.190000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>-1.349999999999994</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="C58">
-        <v>-19.90000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-19.900000000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
-        <v>-1.349999999999994</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="C59">
         <v>-25.64</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-1.349999999999994</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="C60">
-        <v>-30.40000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-30.400000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>-1.349999999999994</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="C61">
-        <v>-30.40000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-30.400000000000009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
-        <v>-1.349999999999994</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="C62">
-        <v>-30.40000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-30.400000000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2088,10 +7164,10 @@
         <v>-2.129999999999995</v>
       </c>
       <c r="C63">
-        <v>-35.81999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-35.819999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2099,10 +7175,10 @@
         <v>-2.129999999999995</v>
       </c>
       <c r="C64">
-        <v>-34.59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-34.590000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2113,7 +7189,7 @@
         <v>-37.29</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2124,7 +7200,7 @@
         <v>-44.34</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2135,7 +7211,7 @@
         <v>-42.49</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2146,7 +7222,7 @@
         <v>-42.49</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2157,183 +7233,183 @@
         <v>-42.49</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C70">
         <v>-47.83</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C71">
         <v>-48.84</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C72">
         <v>-50.79</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C73">
         <v>-57.04</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C74">
         <v>-51.59</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C75">
         <v>-51.59</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C76">
         <v>-51.59</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77">
-        <v>-4.069999999999993</v>
+        <v>-4.0699999999999932</v>
       </c>
       <c r="C77">
         <v>-56.48</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78">
-        <v>-4.069999999999993</v>
+        <v>-4.0699999999999932</v>
       </c>
       <c r="C78">
         <v>-55.95</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79">
-        <v>-4.069999999999993</v>
+        <v>-4.0699999999999932</v>
       </c>
       <c r="C79">
         <v>-57.18</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-4.069999999999993</v>
+        <v>-4.0699999999999932</v>
       </c>
       <c r="C80">
         <v>-54.17</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81">
-        <v>-3.920000000000002</v>
+        <v>-3.9200000000000021</v>
       </c>
       <c r="C81">
         <v>-53.49</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-3.920000000000002</v>
+        <v>-3.9200000000000021</v>
       </c>
       <c r="C82">
         <v>-53.49</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83">
-        <v>-3.920000000000002</v>
+        <v>-3.9200000000000021</v>
       </c>
       <c r="C83">
         <v>-53.49</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84">
-        <v>-4.329999999999998</v>
+        <v>-4.3299999999999983</v>
       </c>
       <c r="C84">
         <v>-55.41</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-4.329999999999998</v>
+        <v>-4.3299999999999983</v>
       </c>
       <c r="C85">
         <v>-49.28</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2344,51 +7420,51 @@
         <v>-47.1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87">
-        <v>-3.900000000000006</v>
+        <v>-3.9000000000000061</v>
       </c>
       <c r="C87">
         <v>-47.06</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88">
-        <v>-4.510000000000005</v>
+        <v>-4.5100000000000051</v>
       </c>
       <c r="C88">
         <v>-50.32</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89">
-        <v>-4.510000000000005</v>
+        <v>-4.5100000000000051</v>
       </c>
       <c r="C89">
         <v>-50.32</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-4.510000000000005</v>
+        <v>-4.5100000000000051</v>
       </c>
       <c r="C90">
         <v>-50.32</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2399,7 +7475,7 @@
         <v>-51.59</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2410,84 +7486,84 @@
         <v>-48.63</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93">
-        <v>-5.349999999999994</v>
+        <v>-5.3499999999999943</v>
       </c>
       <c r="C93">
         <v>-51.64</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-5.129999999999995</v>
+        <v>-5.1299999999999946</v>
       </c>
       <c r="C94">
         <v>-50.57</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-5.129999999999995</v>
+        <v>-5.1299999999999946</v>
       </c>
       <c r="C95">
         <v>-49.9</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96">
-        <v>-5.129999999999995</v>
+        <v>-5.1299999999999946</v>
       </c>
       <c r="C96">
         <v>-49.9</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97">
-        <v>-5.129999999999995</v>
+        <v>-5.1299999999999946</v>
       </c>
       <c r="C97">
         <v>-49.9</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>-4.840000000000003</v>
+        <v>-4.8400000000000034</v>
       </c>
       <c r="C98">
         <v>-48.43</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>-4.439999999999998</v>
+        <v>-4.4399999999999977</v>
       </c>
       <c r="C99">
         <v>-46.4</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2498,238 +7574,238 @@
         <v>-46.68</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101">
-        <v>-4.530000000000001</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="C101">
         <v>-46.84</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102">
-        <v>-4.530000000000001</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="C102">
         <v>-46.84</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103">
-        <v>-4.530000000000001</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="C103">
         <v>-46.84</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104">
-        <v>-4.530000000000001</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="C104">
         <v>-46.84</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105">
-        <v>-4.530000000000001</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="C105">
         <v>-46.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106">
-        <v>-4.989999999999995</v>
+        <v>-4.9899999999999949</v>
       </c>
       <c r="C106">
         <v>-49.32</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-4.989999999999995</v>
+        <v>-4.9899999999999949</v>
       </c>
       <c r="C107">
         <v>-52.5</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108">
-        <v>-4.989999999999995</v>
+        <v>-4.9899999999999949</v>
       </c>
       <c r="C108">
         <v>-53.17</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109">
-        <v>-4.989999999999995</v>
+        <v>-4.9899999999999949</v>
       </c>
       <c r="C109">
         <v>-52.13</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110">
-        <v>-4.989999999999995</v>
+        <v>-4.9899999999999949</v>
       </c>
       <c r="C110">
         <v>-52.13</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111">
-        <v>-4.989999999999995</v>
+        <v>-4.9899999999999949</v>
       </c>
       <c r="C111">
         <v>-52.13</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112">
-        <v>-4.969999999999999</v>
+        <v>-4.9699999999999989</v>
       </c>
       <c r="C112">
         <v>-52.01</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113">
-        <v>-5.459999999999994</v>
+        <v>-5.4599999999999937</v>
       </c>
       <c r="C113">
         <v>-54.38</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114">
-        <v>-5.459999999999994</v>
+        <v>-5.4599999999999937</v>
       </c>
       <c r="C114">
         <v>-54.65</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115">
-        <v>-5.459999999999994</v>
+        <v>-5.4599999999999937</v>
       </c>
       <c r="C115">
         <v>-54.11</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116">
-        <v>-5.670000000000002</v>
+        <v>-5.6700000000000017</v>
       </c>
       <c r="C116">
         <v>-55.04</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117">
-        <v>-5.670000000000002</v>
+        <v>-5.6700000000000017</v>
       </c>
       <c r="C117">
         <v>-55.04</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118">
-        <v>-5.670000000000002</v>
+        <v>-5.6700000000000017</v>
       </c>
       <c r="C118">
         <v>-55.04</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-5.579999999999998</v>
+        <v>-5.5799999999999983</v>
       </c>
       <c r="C119">
         <v>-54.66</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-5.709999999999994</v>
+        <v>-5.7099999999999937</v>
       </c>
       <c r="C120">
         <v>-55.26</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121">
-        <v>-5.379999999999995</v>
+        <v>-5.3799999999999946</v>
       </c>
       <c r="C121">
         <v>-53.75</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2740,7 +7816,7 @@
         <v>-53.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -2751,7 +7827,7 @@
         <v>-53.18</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -2762,7 +7838,7 @@
         <v>-53.18</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2773,7 +7849,7 @@
         <v>-53.18</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -2784,7 +7860,7 @@
         <v>-56.69</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -2795,7 +7871,7 @@
         <v>-55.91</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -2806,7 +7882,7 @@
         <v>-57.65</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -2817,7 +7893,7 @@
         <v>-58.72</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -2828,7 +7904,7 @@
         <v>-57.55</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -2839,7 +7915,7 @@
         <v>-57.55</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -2850,161 +7926,161 @@
         <v>-57.55</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>-6.329999999999998</v>
+        <v>-6.3299999999999983</v>
       </c>
       <c r="C133">
         <v>-58.96</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134">
-        <v>-6.329999999999998</v>
+        <v>-6.3299999999999983</v>
       </c>
       <c r="C134">
         <v>-59.18</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135">
-        <v>-6.329999999999998</v>
+        <v>-6.3299999999999983</v>
       </c>
       <c r="C135">
         <v>-60.23</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136">
-        <v>-6.329999999999998</v>
+        <v>-6.3299999999999983</v>
       </c>
       <c r="C136">
         <v>-61.15</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>-6.329999999999998</v>
+        <v>-6.3299999999999983</v>
       </c>
       <c r="C137">
         <v>-60.48</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>-6.329999999999998</v>
+        <v>-6.3299999999999983</v>
       </c>
       <c r="C138">
         <v>-60.48</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139">
-        <v>-6.329999999999998</v>
+        <v>-6.3299999999999983</v>
       </c>
       <c r="C139">
         <v>-60.48</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140">
-        <v>-5.780000000000001</v>
+        <v>-5.7800000000000011</v>
       </c>
       <c r="C140">
         <v>-58.32</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141">
-        <v>-6.680000000000007</v>
+        <v>-6.6800000000000068</v>
       </c>
       <c r="C141">
         <v>-62.06</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
       <c r="B142">
-        <v>-6.680000000000007</v>
+        <v>-6.6800000000000068</v>
       </c>
       <c r="C142">
         <v>-62.24</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
       <c r="B143">
-        <v>-6.680000000000007</v>
+        <v>-6.6800000000000068</v>
       </c>
       <c r="C143">
         <v>-62.71</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
       <c r="B144">
-        <v>-6.680000000000007</v>
+        <v>-6.6800000000000068</v>
       </c>
       <c r="C144">
         <v>-63.69</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>-6.680000000000007</v>
+        <v>-6.6800000000000068</v>
       </c>
       <c r="C145">
         <v>-63.69</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>-6.680000000000007</v>
+        <v>-6.6800000000000068</v>
       </c>
       <c r="C146">
         <v>-63.69</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3015,95 +8091,95 @@
         <v>-62.04</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>-5.159999999999997</v>
+        <v>-5.1599999999999966</v>
       </c>
       <c r="C148">
         <v>-58</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
       <c r="B149">
-        <v>-4.879999999999995</v>
+        <v>-4.8799999999999946</v>
       </c>
       <c r="C149">
         <v>-56.82</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>-4.819999999999993</v>
+        <v>-4.8199999999999932</v>
       </c>
       <c r="C150">
         <v>-56.55</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
       <c r="B151">
-        <v>-5.400000000000006</v>
+        <v>-5.4000000000000057</v>
       </c>
       <c r="C151">
         <v>-59.06</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
       <c r="B152">
-        <v>-5.400000000000006</v>
+        <v>-5.4000000000000057</v>
       </c>
       <c r="C152">
         <v>-59.06</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
       <c r="B153">
-        <v>-5.400000000000006</v>
+        <v>-5.4000000000000057</v>
       </c>
       <c r="C153">
         <v>-59.06</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
       <c r="B154">
-        <v>-4.859999999999999</v>
+        <v>-4.8599999999999994</v>
       </c>
       <c r="C154">
         <v>-56.88</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
       <c r="B155">
-        <v>-4.530000000000001</v>
+        <v>-4.5300000000000011</v>
       </c>
       <c r="C155">
         <v>-55.46</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3114,18 +8190,18 @@
         <v>-50.95</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
       <c r="B157">
-        <v>-3.349999999999994</v>
+        <v>-3.3499999999999939</v>
       </c>
       <c r="C157">
         <v>-50.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3136,7 +8212,7 @@
         <v>-43.9</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3147,7 +8223,7 @@
         <v>-43.9</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3158,18 +8234,18 @@
         <v>-43.9</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
       <c r="B161">
-        <v>-1.260000000000005</v>
+        <v>-1.2600000000000049</v>
       </c>
       <c r="C161">
-        <v>-39.12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>-39.119999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3180,7 +8256,7 @@
         <v>-44.2</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3191,7 +8267,7 @@
         <v>-48.41</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3202,7 +8278,7 @@
         <v>-52.89</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3213,7 +8289,7 @@
         <v>-51.37</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3224,7 +8300,7 @@
         <v>-51.37</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3235,7 +8311,7 @@
         <v>-51.37</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -3246,7 +8322,7 @@
         <v>-52.83</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3257,139 +8333,139 @@
         <v>-50.99</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
       <c r="B170">
-        <v>-2.780000000000001</v>
+        <v>-2.7800000000000011</v>
       </c>
       <c r="C170">
         <v>-52.9</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
       <c r="B171">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C171">
         <v>-53.88</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C172">
         <v>-54.04</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
       <c r="B173">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C173">
         <v>-54.04</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
       <c r="B174">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C174">
         <v>-54.04</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
       <c r="B175">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C175">
         <v>-56.11</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
       <c r="B176">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C176">
         <v>-56.9</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
       <c r="B177">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C177">
         <v>-58.57</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
       <c r="B178">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C178">
         <v>-58.26</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
       <c r="B179">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C179">
         <v>-59.66</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
       <c r="B180">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C180">
         <v>-59.66</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
       <c r="B181">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C181">
         <v>-59.66</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -3400,7 +8476,7 @@
         <v>-58.34</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -3411,7 +8487,7 @@
         <v>-59.37</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3422,7 +8498,7 @@
         <v>-58.99</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3433,7 +8509,7 @@
         <v>-58.01</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -3444,7 +8520,7 @@
         <v>-57.57</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3455,7 +8531,7 @@
         <v>-57.57</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -3466,95 +8542,95 @@
         <v>-57.57</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
       <c r="B189">
-        <v>-3.170000000000002</v>
+        <v>-3.1700000000000021</v>
       </c>
       <c r="C189">
         <v>-57.6</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
       <c r="B190">
-        <v>-3.290000000000006</v>
+        <v>-3.2900000000000058</v>
       </c>
       <c r="C190">
         <v>-58.09</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
       <c r="B191">
-        <v>-3.290000000000006</v>
+        <v>-3.2900000000000058</v>
       </c>
       <c r="C191">
         <v>-59.01</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
       <c r="B192">
-        <v>-3.290000000000006</v>
+        <v>-3.2900000000000058</v>
       </c>
       <c r="C192">
         <v>-59.94</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-3.290000000000006</v>
+        <v>-3.2900000000000058</v>
       </c>
       <c r="C193">
         <v>-59.44</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
       <c r="B194">
-        <v>-3.290000000000006</v>
+        <v>-3.2900000000000058</v>
       </c>
       <c r="C194">
         <v>-59.44</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
       <c r="B195">
-        <v>-3.290000000000006</v>
+        <v>-3.2900000000000058</v>
       </c>
       <c r="C195">
         <v>-59.44</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
       <c r="B196">
-        <v>-3.099999999999994</v>
+        <v>-3.0999999999999939</v>
       </c>
       <c r="C196">
         <v>-58.69</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3565,73 +8641,73 @@
         <v>-58.79</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
       <c r="B198">
-        <v>-2.459999999999994</v>
+        <v>-2.4599999999999942</v>
       </c>
       <c r="C198">
         <v>-56.03</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
       <c r="B199">
-        <v>-2.670000000000002</v>
+        <v>-2.6700000000000021</v>
       </c>
       <c r="C199">
         <v>-56.99</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
       <c r="B200">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C200">
         <v>-58.36</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
       <c r="B201">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C201">
         <v>-58.36</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
       <c r="B202">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C202">
         <v>-58.36</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
       <c r="B203">
-        <v>-2.989999999999995</v>
+        <v>-2.9899999999999949</v>
       </c>
       <c r="C203">
         <v>-58.36</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -3642,7 +8718,7 @@
         <v>-58.97</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -3653,7 +8729,7 @@
         <v>-58.9</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -3664,7 +8740,7 @@
         <v>-59.54</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -3675,7 +8751,7 @@
         <v>-59.87</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -3686,7 +8762,7 @@
         <v>-59.87</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -3697,7 +8773,7 @@
         <v>-59.87</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -3708,7 +8784,7 @@
         <v>-61.87</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -3719,7 +8795,7 @@
         <v>-62.16</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -3730,73 +8806,73 @@
         <v>-62.27</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>214</v>
       </c>
       <c r="B213">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C213">
         <v>-64</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>215</v>
       </c>
       <c r="B214">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C214">
-        <v>-64.84999999999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>-64.849999999999994</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C215">
-        <v>-64.84999999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>-64.849999999999994</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>217</v>
       </c>
       <c r="B216">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C216">
-        <v>-64.84999999999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>-64.849999999999994</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>218</v>
       </c>
       <c r="B217">
-        <v>-4.439999999999998</v>
+        <v>-4.4399999999999977</v>
       </c>
       <c r="C217">
         <v>-66.05</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>219</v>
       </c>
       <c r="B218">
-        <v>-4.439999999999998</v>
+        <v>-4.4399999999999977</v>
       </c>
       <c r="C218">
         <v>-64.28</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -3807,161 +8883,161 @@
         <v>-61.84</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-3.569999999999993</v>
+        <v>-3.5699999999999932</v>
       </c>
       <c r="C220">
         <v>-61.13</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>222</v>
       </c>
       <c r="B221">
-        <v>-3.599999999999994</v>
+        <v>-3.5999999999999939</v>
       </c>
       <c r="C221">
         <v>-61.26</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>223</v>
       </c>
       <c r="B222">
-        <v>-3.599999999999994</v>
+        <v>-3.5999999999999939</v>
       </c>
       <c r="C222">
         <v>-61.26</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>224</v>
       </c>
       <c r="B223">
-        <v>-3.599999999999994</v>
+        <v>-3.5999999999999939</v>
       </c>
       <c r="C223">
         <v>-61.26</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>225</v>
       </c>
       <c r="B224">
-        <v>-3.010000000000005</v>
+        <v>-3.0100000000000051</v>
       </c>
       <c r="C224">
         <v>-58.98</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>226</v>
       </c>
       <c r="B225">
-        <v>-2.790000000000006</v>
+        <v>-2.7900000000000058</v>
       </c>
       <c r="C225">
         <v>-58.07</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>227</v>
       </c>
       <c r="B226">
-        <v>-3.030000000000001</v>
+        <v>-3.0300000000000011</v>
       </c>
       <c r="C226">
         <v>-59.07</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>228</v>
       </c>
       <c r="B227">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C227">
         <v>-59.19</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>229</v>
       </c>
       <c r="B228">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C228">
         <v>-61.55</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>230</v>
       </c>
       <c r="B229">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C229">
         <v>-61.55</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>231</v>
       </c>
       <c r="B230">
-        <v>-3.060000000000002</v>
+        <v>-3.0600000000000018</v>
       </c>
       <c r="C230">
         <v>-61.55</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>232</v>
       </c>
       <c r="B231">
-        <v>-3.420000000000002</v>
+        <v>-3.4200000000000021</v>
       </c>
       <c r="C231">
         <v>-62.92</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>233</v>
       </c>
       <c r="B232">
-        <v>-3.420000000000002</v>
+        <v>-3.4200000000000021</v>
       </c>
       <c r="C232">
         <v>-63.21</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-3.420000000000002</v>
+        <v>-3.4200000000000021</v>
       </c>
       <c r="C233">
         <v>-62.2</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -3972,7 +9048,7 @@
         <v>-63.12</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -3983,7 +9059,7 @@
         <v>-62.47</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -3994,7 +9070,7 @@
         <v>-62.47</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -4005,7 +9081,7 @@
         <v>-62.47</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -4016,29 +9092,29 @@
         <v>-61.68</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>240</v>
       </c>
       <c r="B239">
-        <v>-3.150000000000006</v>
+        <v>-3.1500000000000061</v>
       </c>
       <c r="C239">
         <v>-61.19</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
       <c r="B240">
-        <v>-3.219999999999999</v>
+        <v>-3.2199999999999989</v>
       </c>
       <c r="C240">
         <v>-61.47</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -4049,128 +9125,128 @@
         <v>-60.55</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-2.920000000000002</v>
+        <v>-2.9200000000000021</v>
       </c>
       <c r="C242">
         <v>-60.32</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>244</v>
       </c>
       <c r="B243">
-        <v>-2.920000000000002</v>
+        <v>-2.9200000000000021</v>
       </c>
       <c r="C243">
         <v>-60.32</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>245</v>
       </c>
       <c r="B244">
-        <v>-2.920000000000002</v>
+        <v>-2.9200000000000021</v>
       </c>
       <c r="C244">
         <v>-60.32</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>246</v>
       </c>
       <c r="B245">
-        <v>-3.329999999999998</v>
+        <v>-3.3299999999999979</v>
       </c>
       <c r="C245">
         <v>-61.96</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>247</v>
       </c>
       <c r="B246">
-        <v>-3.329999999999998</v>
+        <v>-3.3299999999999979</v>
       </c>
       <c r="C246">
         <v>-62.04</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>248</v>
       </c>
       <c r="B247">
-        <v>-3.329999999999998</v>
+        <v>-3.3299999999999979</v>
       </c>
       <c r="C247">
         <v>-62.86</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-3.329999999999998</v>
+        <v>-3.3299999999999979</v>
       </c>
       <c r="C248">
         <v>-61.75</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>250</v>
       </c>
       <c r="B249">
-        <v>-3.319999999999993</v>
+        <v>-3.3199999999999932</v>
       </c>
       <c r="C249">
         <v>-61.69</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>251</v>
       </c>
       <c r="B250">
-        <v>-3.319999999999993</v>
+        <v>-3.3199999999999932</v>
       </c>
       <c r="C250">
         <v>-61.69</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>252</v>
       </c>
       <c r="B251">
-        <v>-3.319999999999993</v>
+        <v>-3.3199999999999932</v>
       </c>
       <c r="C251">
         <v>-61.69</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>253</v>
       </c>
       <c r="B252">
-        <v>-3.260000000000005</v>
+        <v>-3.2600000000000051</v>
       </c>
       <c r="C252">
         <v>-61.48</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -4181,7 +9257,7 @@
         <v>-62.42</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -4192,7 +9268,7 @@
         <v>-62.51</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -4203,7 +9279,7 @@
         <v>-62.54</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -4214,7 +9290,7 @@
         <v>-62.96</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -4225,7 +9301,7 @@
         <v>-62.96</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -4236,7 +9312,7 @@
         <v>-62.96</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -4247,7 +9323,7 @@
         <v>-63.04</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -4258,238 +9334,238 @@
         <v>-63.1</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>262</v>
       </c>
       <c r="B261">
-        <v>-3.739999999999995</v>
+        <v>-3.7399999999999949</v>
       </c>
       <c r="C261">
         <v>-63.43</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>263</v>
       </c>
       <c r="B262">
-        <v>-3.459999999999994</v>
+        <v>-3.4599999999999942</v>
       </c>
       <c r="C262">
         <v>-62.41</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263">
-        <v>-3.459999999999994</v>
+        <v>-3.4599999999999942</v>
       </c>
       <c r="C263">
         <v>-62.41</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264">
-        <v>-3.459999999999994</v>
+        <v>-3.4599999999999942</v>
       </c>
       <c r="C264">
         <v>-62.41</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265">
-        <v>-3.459999999999994</v>
+        <v>-3.4599999999999942</v>
       </c>
       <c r="C265">
         <v>-62.41</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>267</v>
       </c>
       <c r="B266">
-        <v>-4.409999999999997</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="C266">
         <v>-65.95</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-4.409999999999997</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="C267">
-        <v>-67.43000000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>-67.430000000000007</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>269</v>
       </c>
       <c r="B268">
-        <v>-4.409999999999997</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="C268">
         <v>-67.39</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>270</v>
       </c>
       <c r="B269">
-        <v>-4.409999999999997</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="C269">
         <v>-69.59</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270">
-        <v>-4.409999999999997</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="C270">
-        <v>-70.18000000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>-70.180000000000007</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271">
-        <v>-4.409999999999997</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="C271">
-        <v>-70.18000000000001</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>-70.180000000000007</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272">
-        <v>-4.409999999999997</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="C272">
-        <v>-70.18000000000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>-70.180000000000007</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273">
-        <v>-4.340000000000003</v>
+        <v>-4.3400000000000034</v>
       </c>
       <c r="C273">
-        <v>-69.98999999999999</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>-69.989999999999995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274">
-        <v>-4.620000000000005</v>
+        <v>-4.6200000000000054</v>
       </c>
       <c r="C274">
-        <v>-70.81999999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>-70.819999999999993</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275">
-        <v>-4.620000000000005</v>
+        <v>-4.6200000000000054</v>
       </c>
       <c r="C275">
         <v>-70.16</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>277</v>
       </c>
       <c r="B276">
-        <v>-4.739999999999995</v>
+        <v>-4.7399999999999949</v>
       </c>
       <c r="C276">
         <v>-70.53</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>278</v>
       </c>
       <c r="B277">
-        <v>-4.930000000000007</v>
+        <v>-4.9300000000000068</v>
       </c>
       <c r="C277">
-        <v>-71.06999999999999</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>-71.069999999999993</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>279</v>
       </c>
       <c r="B278">
-        <v>-4.930000000000007</v>
+        <v>-4.9300000000000068</v>
       </c>
       <c r="C278">
-        <v>-71.06999999999999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>-71.069999999999993</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>280</v>
       </c>
       <c r="B279">
-        <v>-4.930000000000007</v>
+        <v>-4.9300000000000068</v>
       </c>
       <c r="C279">
-        <v>-71.06999999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>-71.069999999999993</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>281</v>
       </c>
       <c r="B280">
-        <v>-4.489999999999995</v>
+        <v>-4.4899999999999949</v>
       </c>
       <c r="C280">
         <v>-69.81</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>282</v>
       </c>
       <c r="B281">
-        <v>-4.049999999999997</v>
+        <v>-4.0499999999999972</v>
       </c>
       <c r="C281">
         <v>-68.48</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -4497,175 +9573,175 @@
         <v>-3.730000000000004</v>
       </c>
       <c r="C282">
-        <v>-67.46000000000001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>-67.460000000000008</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-3.549999999999997</v>
+        <v>-3.5499999999999972</v>
       </c>
       <c r="C283">
         <v>-66.88</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>285</v>
       </c>
       <c r="B284">
-        <v>-3.829999999999998</v>
+        <v>-3.8299999999999979</v>
       </c>
       <c r="C284">
         <v>-67.81</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>286</v>
       </c>
       <c r="B285">
-        <v>-3.829999999999998</v>
+        <v>-3.8299999999999979</v>
       </c>
       <c r="C285">
         <v>-67.81</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>287</v>
       </c>
       <c r="B286">
-        <v>-3.829999999999998</v>
+        <v>-3.8299999999999979</v>
       </c>
       <c r="C286">
         <v>-67.81</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>288</v>
       </c>
       <c r="B287">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C287">
-        <v>-68.68000000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>-68.680000000000007</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>289</v>
       </c>
       <c r="B288">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C288">
         <v>-70.03</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>290</v>
       </c>
       <c r="B289">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C289">
         <v>-69.78</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>291</v>
       </c>
       <c r="B290">
-        <v>-4.099999999999994</v>
+        <v>-4.0999999999999943</v>
       </c>
       <c r="C290">
-        <v>-70.34999999999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>-70.349999999999994</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>292</v>
       </c>
       <c r="B291">
-        <v>-3.900000000000006</v>
+        <v>-3.9000000000000061</v>
       </c>
       <c r="C291">
         <v>-69.77</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>293</v>
       </c>
       <c r="B292">
-        <v>-3.900000000000006</v>
+        <v>-3.9000000000000061</v>
       </c>
       <c r="C292">
         <v>-69.77</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>294</v>
       </c>
       <c r="B293">
-        <v>-3.900000000000006</v>
+        <v>-3.9000000000000061</v>
       </c>
       <c r="C293">
         <v>-69.77</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>295</v>
       </c>
       <c r="B294">
-        <v>-3.170000000000002</v>
+        <v>-3.1700000000000021</v>
       </c>
       <c r="C294">
-        <v>-67.53999999999999</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>-67.539999999999992</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>296</v>
       </c>
       <c r="B295">
-        <v>-3.010000000000005</v>
+        <v>-3.0100000000000051</v>
       </c>
       <c r="C295">
         <v>-67.03</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>297</v>
       </c>
       <c r="B296">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C296">
         <v>-68.44</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>298</v>
       </c>
       <c r="B297">
-        <v>-3.439999999999998</v>
+        <v>-3.4399999999999982</v>
       </c>
       <c r="C297">
         <v>-67.45</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -4673,10 +9749,10 @@
         <v>-3.25</v>
       </c>
       <c r="C298">
-        <v>-66.84999999999999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>-66.849999999999994</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -4684,10 +9760,10 @@
         <v>-3.25</v>
       </c>
       <c r="C299">
-        <v>-66.84999999999999</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>-66.849999999999994</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -4695,10 +9771,10 @@
         <v>-3.25</v>
       </c>
       <c r="C300">
-        <v>-66.84999999999999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>-66.849999999999994</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -4709,7 +9785,7 @@
         <v>-68.19</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -4720,7 +9796,7 @@
         <v>-69.36</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -4731,7 +9807,7 @@
         <v>-71.13</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -4742,7 +9818,7 @@
         <v>-71.97</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -4753,7 +9829,7 @@
         <v>-71.69</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -4764,7 +9840,7 @@
         <v>-71.69</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -4775,7 +9851,7 @@
         <v>-71.69</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -4786,29 +9862,29 @@
         <v>-70.28</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>310</v>
       </c>
       <c r="B309">
-        <v>-2.540000000000006</v>
+        <v>-2.5400000000000058</v>
       </c>
       <c r="C309">
         <v>-68.45</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>311</v>
       </c>
       <c r="B310">
-        <v>-2.579999999999998</v>
+        <v>-2.5799999999999979</v>
       </c>
       <c r="C310">
-        <v>-68.56999999999999</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>-68.569999999999993</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -4816,65 +9892,65 @@
         <v>-2.5</v>
       </c>
       <c r="C311">
-        <v>-68.31999999999999</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>-68.319999999999993</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>313</v>
       </c>
       <c r="B312">
-        <v>-2.719999999999999</v>
+        <v>-2.7199999999999989</v>
       </c>
       <c r="C312">
         <v>-69.02</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>314</v>
       </c>
       <c r="B313">
-        <v>-2.719999999999999</v>
+        <v>-2.7199999999999989</v>
       </c>
       <c r="C313">
         <v>-69.02</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>315</v>
       </c>
       <c r="B314">
-        <v>-2.719999999999999</v>
+        <v>-2.7199999999999989</v>
       </c>
       <c r="C314">
         <v>-69.02</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>316</v>
       </c>
       <c r="B315">
-        <v>0.01999999999999602</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="C315">
         <v>-60.5</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>317</v>
       </c>
       <c r="B316">
-        <v>0.3199999999999932</v>
+        <v>0.31999999999999318</v>
       </c>
       <c r="C316">
         <v>-59.35</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -4885,51 +9961,51 @@
         <v>-60.06</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>319</v>
       </c>
       <c r="B318">
-        <v>0.07999999999999829</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="C318">
         <v>-60.31</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>320</v>
       </c>
       <c r="B319">
-        <v>0.07999999999999829</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="C319">
         <v>-60.76</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>321</v>
       </c>
       <c r="B320">
-        <v>0.07999999999999829</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="C320">
         <v>-60.76</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>322</v>
       </c>
       <c r="B321">
-        <v>0.07999999999999829</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="C321">
         <v>-60.76</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -4940,18 +10016,18 @@
         <v>-56.16</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>324</v>
       </c>
       <c r="B323">
-        <v>1.239999999999995</v>
+        <v>1.2399999999999951</v>
       </c>
       <c r="C323">
         <v>-56.22</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -4962,62 +10038,62 @@
         <v>-55.38</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>326</v>
       </c>
       <c r="B325">
-        <v>0.9699999999999989</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="C325">
         <v>-57.43</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>327</v>
       </c>
       <c r="B326">
-        <v>0.9699999999999989</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="C326">
         <v>-57.42</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>328</v>
       </c>
       <c r="B327">
-        <v>0.9699999999999989</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="C327">
         <v>-57.42</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>329</v>
       </c>
       <c r="B328">
-        <v>0.9699999999999989</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="C328">
         <v>-57.42</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>330</v>
       </c>
       <c r="B329">
-        <v>1.510000000000005</v>
+        <v>1.5100000000000049</v>
       </c>
       <c r="C329">
         <v>-55.13</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -5028,18 +10104,18 @@
         <v>-50.17</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>332</v>
       </c>
       <c r="B331">
-        <v>2.819999999999993</v>
+        <v>2.8199999999999932</v>
       </c>
       <c r="C331">
         <v>-49.12</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -5050,7 +10126,7 @@
         <v>-48.13</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -5061,7 +10137,7 @@
         <v>-45.63</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -5072,7 +10148,7 @@
         <v>-45.63</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -5083,51 +10159,51 @@
         <v>-45.63</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>337</v>
       </c>
       <c r="B336">
-        <v>2.760000000000005</v>
+        <v>2.7600000000000051</v>
       </c>
       <c r="C336">
         <v>-49.62</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>338</v>
       </c>
       <c r="B337">
-        <v>2.760000000000005</v>
+        <v>2.7600000000000051</v>
       </c>
       <c r="C337">
         <v>-47.91</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>339</v>
       </c>
       <c r="B338">
-        <v>2.760000000000005</v>
+        <v>2.7600000000000051</v>
       </c>
       <c r="C338">
         <v>-48.35</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>340</v>
       </c>
       <c r="B339">
-        <v>3.060000000000002</v>
+        <v>3.0600000000000018</v>
       </c>
       <c r="C339">
         <v>-46.84</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -5138,7 +10214,7 @@
         <v>-47.06</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -5149,7 +10225,7 @@
         <v>-47.06</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -5160,7 +10236,7 @@
         <v>-47.06</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -5171,7 +10247,7 @@
         <v>-46.28</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -5184,5 +10260,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>